--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_SAP_C4HANA_DE.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_SAP_C4HANA_DE.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81D35D5-F585-462C-A399-EE6042CF9525}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84323DDE-DDEE-44C5-A68A-60CD91BDD0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="8Dyaui/daSUT/hOvn8XBo2s24xlJVXslcs1WHSyLVowDjRkSWj4RV+pFVEsQSEKModckNG3YVppR/q0TwGchqw==" workbookSaltValue="ZPx5szgFR6cPwbArCr9dlg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="6285" windowWidth="18255" windowHeight="5385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="checkbox">Specifications!#REF!,Specifications!#REF!,Specifications!$C$6:$D$30</definedName>
-    <definedName name="Field_type">Specifications!$I$6:$I$30,Specifications!$M$6:$M$30,Specifications!$Q$6:$Q$30,Specifications!$U$6:$U$30,Specifications!$Y$6:$Y$30,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$Y$33:$Y$41,Specifications!$U$33:$U$41,Specifications!$Q$33:$Q$41,Specifications!$M$33:$M$41,Specifications!$I$33:$I$41</definedName>
+    <definedName name="checkbox">Specifications!#REF!,Specifications!#REF!,Specifications!$C$6:$D$34</definedName>
+    <definedName name="Field_type">Specifications!$I$6:$I$34,Specifications!$M$6:$M$34,Specifications!$Q$6:$Q$34,Specifications!$U$6:$U$34,Specifications!$Y$6:$Y$34,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$Y$37:$Y$42,Specifications!$U$37:$U$42,Specifications!$Q$37:$Q$42,Specifications!$M$37:$M$42,Specifications!$I$37:$I$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="109">
   <si>
     <t>Website</t>
   </si>
@@ -333,13 +333,43 @@
   </si>
   <si>
     <t>Notizen</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Example Not used field</t>
+  </si>
+  <si>
+    <t>not used</t>
+  </si>
+  <si>
+    <t>Not Used Field</t>
+  </si>
+  <si>
+    <t>Not_Used_Field</t>
+  </si>
+  <si>
+    <t>Example Mandatory field</t>
+  </si>
+  <si>
+    <t>mandatory</t>
+  </si>
+  <si>
+    <t>Mandatory field</t>
+  </si>
+  <si>
+    <t>Mandatory_field</t>
+  </si>
+  <si>
+    <t>(= Fields with automatic value)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,13 +437,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -459,7 +482,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="67">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -481,17 +504,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -500,15 +512,6 @@
       <bottom style="thin">
         <color rgb="FF0070C0"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -561,15 +564,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
@@ -589,7 +583,7 @@
       <right style="thick">
         <color rgb="FF9DA600"/>
       </right>
-      <top style="thick">
+      <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
       <bottom style="thin">
@@ -607,46 +601,7 @@
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
       <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF9DA600"/>
       </bottom>
       <diagonal/>
@@ -659,9 +614,7 @@
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -672,44 +625,7 @@
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
       <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF9DA600"/>
       </bottom>
       <diagonal/>
@@ -892,19 +808,6 @@
       <right style="thick">
         <color rgb="FF9DA600"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
@@ -1007,39 +910,6 @@
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF001E51"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF001E51"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF001E51"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
       </bottom>
@@ -1141,6 +1011,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFB4C6E7"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color rgb="FFB4C6E7"/>
       </left>
@@ -1148,7 +1031,33 @@
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFB4C6E7"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFB4C6E7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFB4C6E7"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1159,120 +1068,9 @@
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFB4C6E7"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFB4C6E7"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFB4C6E7"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFB4C6E7"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
       <bottom style="thick">
         <color rgb="FFB4C6E7"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFB4C6E7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFB4C6E7"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFB4C6E7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1307,71 +1105,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1379,125 +1161,82 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1507,7 +1246,51 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1648,11 +1431,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="10"/>
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="firstColumn" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="secondRowStripe" dxfId="6"/>
+      <tableStyleElement type="wholeTable" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="firstColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1759,13 +1542,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2126,10 +1909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
-  <dimension ref="A1:Y42"/>
+  <dimension ref="A1:AG43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2151,8 +1934,8 @@
     <col min="23" max="25" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:33" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="1"/>
@@ -2162,1324 +1945,1423 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="38"/>
-      <c r="K2" s="38"/>
-    </row>
-    <row r="3" spans="1:25" ht="79.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="2" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="28"/>
+      <c r="K2" s="28"/>
+    </row>
+    <row r="3" spans="1:33" ht="79.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="29" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="G3" s="110" t="s">
+      <c r="E3" s="21"/>
+      <c r="G3" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="110" t="s">
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="O3" s="110" t="s">
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="O3" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="S3" s="104" t="s">
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="S3" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="105"/>
-      <c r="U3" s="106"/>
-      <c r="W3" s="107" t="s">
+      <c r="T3" s="70"/>
+      <c r="U3" s="71"/>
+      <c r="W3" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="109"/>
-    </row>
-    <row r="4" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="93" t="s">
+      <c r="X3" s="73"/>
+      <c r="Y3" s="74"/>
+    </row>
+    <row r="4" spans="1:33" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="36" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="48" t="s">
+      <c r="K5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="49" t="s">
+      <c r="L5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="50" t="s">
+      <c r="M5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="48" t="s">
+      <c r="O5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="49" t="s">
+      <c r="P5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="50" t="s">
+      <c r="Q5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="S5" s="62" t="s">
+      <c r="S5" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="T5" s="63" t="s">
+      <c r="T5" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="U5" s="64" t="s">
+      <c r="U5" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="W5" s="62" t="s">
+      <c r="W5" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="X5" s="63" t="s">
+      <c r="X5" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="Y5" s="64" t="s">
+      <c r="Y5" s="45" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="33"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="52"/>
+    <row r="6" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="G6" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>17</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="52"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="52"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="66"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="66"/>
-    </row>
-    <row r="7" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="37"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="57"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="57"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="49"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="49"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="24"/>
+      <c r="G7" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="57"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="57"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="49"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="49"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="24"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="57"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="57"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="49"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="49"/>
+    </row>
+    <row r="9" spans="1:33" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
-      <c r="G7" s="53" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="24"/>
+      <c r="F9"/>
+      <c r="G9" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="82" t="s">
+      <c r="I9" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="44"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="82"/>
-      <c r="N7"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="54"/>
-      <c r="S7" s="69" t="s">
+      <c r="J9" s="1"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="57"/>
+      <c r="N9"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="57"/>
+      <c r="R9"/>
+      <c r="S9" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="T9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U7" s="68"/>
-      <c r="W7" s="69"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="68"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="U9" s="49"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="34"/>
-      <c r="G8" s="53" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="24"/>
+      <c r="G10" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H10" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="54" t="s">
+      <c r="I10" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="53" t="s">
+      <c r="J10" s="1"/>
+      <c r="K10" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L10" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="82" t="s">
+      <c r="M10" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="53"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="54"/>
-      <c r="S8" s="67" t="s">
+      <c r="O10" s="37"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="57"/>
+      <c r="S10" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="T8" s="10" t="s">
+      <c r="T10" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="U8" s="68"/>
-      <c r="W8" s="69"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="68"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="U10" s="49"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="49"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="34"/>
-      <c r="G9" s="53" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="24"/>
+      <c r="G11" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H11" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="I9" s="54" t="s">
+      <c r="I11" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="82"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="54"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="68"/>
-      <c r="W9" s="69"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="68"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="J11" s="1"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="57"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="57"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="49"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="49"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="34"/>
-      <c r="G10" s="53" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="24"/>
+      <c r="G12" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H12" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="82" t="s">
+      <c r="I12" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="53" t="s">
+      <c r="J12" s="1"/>
+      <c r="K12" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L12" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="82" t="s">
+      <c r="M12" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="O10" s="53"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="54"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="68"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="68"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="O12" s="37"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="57"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="49"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="49"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="34"/>
-      <c r="G11" s="53" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="24"/>
+      <c r="G13" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H13" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="82" t="s">
+      <c r="I13" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="53" t="s">
+      <c r="J13" s="1"/>
+      <c r="K13" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L13" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="M11" s="82" t="s">
+      <c r="M13" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="53"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="54"/>
-      <c r="S11" s="69"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="68"/>
-      <c r="W11" s="69"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="68"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="O13" s="37"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="57"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="49"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="49"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="34"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="53" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="24"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L14" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="M12" s="54" t="s">
+      <c r="M14" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="53"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="82"/>
-      <c r="S12" s="69"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="68"/>
-      <c r="W12" s="69"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="68"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="O14" s="37"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="57"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="49"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="49"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="34"/>
-      <c r="G13" s="51" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="24"/>
+      <c r="G15" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H15" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="82" t="s">
+      <c r="I15" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="82"/>
-      <c r="O13" s="83" t="s">
+      <c r="J15" s="1"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="57"/>
+      <c r="O15" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="P13" s="6" t="s">
+      <c r="P15" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="Q13" s="82" t="s">
+      <c r="Q15" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="S13" s="69"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="68"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="68"/>
-    </row>
-    <row r="14" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="S15" s="48"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="49"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="49"/>
+    </row>
+    <row r="16" spans="1:33" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
-      <c r="G14" s="55" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="24"/>
+      <c r="F16"/>
+      <c r="G16" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="45" t="s">
+      <c r="H16" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="82" t="s">
+      <c r="I16" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="44"/>
-      <c r="K14" s="84" t="s">
+      <c r="J16" s="1"/>
+      <c r="K16" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="L14" s="45" t="s">
+      <c r="L16" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="M14" s="82" t="s">
+      <c r="M16" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="84" t="s">
+      <c r="N16"/>
+      <c r="O16" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="P14" s="45" t="s">
+      <c r="P16" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="Q14" s="82" t="s">
+      <c r="Q16" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="S14" s="70"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="71"/>
-      <c r="W14" s="70"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="71"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="R16"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="49"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="34"/>
-      <c r="G15" s="56" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="24"/>
+      <c r="G17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H17" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="I15" s="82" t="s">
+      <c r="I17" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="85" t="s">
+      <c r="J17" s="1"/>
+      <c r="K17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L17" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="M15" s="82" t="s">
+      <c r="M17" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="O15" s="85" t="s">
+      <c r="O17" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="P17" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="Q15" s="82" t="s">
+      <c r="Q17" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="S15" s="69"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="68"/>
-      <c r="W15" s="69"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="68"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="S17" s="48"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="49"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="49"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="34"/>
-      <c r="G16" s="53" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="24"/>
+      <c r="G18" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H18" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="I16" s="82" t="s">
+      <c r="I18" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="86" t="s">
+      <c r="J18" s="1"/>
+      <c r="K18" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L18" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="M16" s="82" t="s">
+      <c r="M18" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="O16" s="86" t="s">
+      <c r="O18" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="P16" s="5" t="s">
+      <c r="P18" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="Q16" s="82" t="s">
+      <c r="Q18" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="S16" s="69"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="68"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="68"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="S18" s="48"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="49"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="49"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="34"/>
-      <c r="G17" s="53" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="24"/>
+      <c r="G19" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H19" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="82" t="s">
+      <c r="I19" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="86" t="s">
+      <c r="J19" s="1"/>
+      <c r="K19" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L19" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="M17" s="82" t="s">
+      <c r="M19" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="O17" s="86" t="s">
+      <c r="O19" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="P19" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="Q17" s="82" t="s">
+      <c r="Q19" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="S17" s="69"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="68"/>
-      <c r="W17" s="69"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="68"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="S19" s="48"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="49"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="49"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="34"/>
-      <c r="G18" s="53" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="24"/>
+      <c r="G20" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H20" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="I18" s="82" t="s">
+      <c r="I20" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="86" t="s">
+      <c r="J20" s="1"/>
+      <c r="K20" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L20" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="M18" s="82" t="s">
+      <c r="M20" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="53" t="s">
+      <c r="O20" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="P20" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="Q18" s="82" t="s">
+      <c r="Q20" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="S18" s="69"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="68"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="68"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="S20" s="48"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="49"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="49"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="34"/>
-      <c r="G19" s="53" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="24"/>
+      <c r="G21" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H21" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I19" s="82" t="s">
+      <c r="I21" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="86" t="s">
+      <c r="J21" s="1"/>
+      <c r="K21" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L21" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="82" t="s">
+      <c r="M21" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="O19" s="53" t="s">
+      <c r="O21" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="P19" s="5" t="s">
+      <c r="P21" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="Q19" s="54" t="s">
+      <c r="Q21" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="S19" s="69"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="68"/>
-      <c r="W19" s="69"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="68"/>
-    </row>
-    <row r="20" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="S21" s="48"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="49"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="49"/>
+    </row>
+    <row r="22" spans="1:33" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
-      <c r="G20" s="55" t="s">
+      <c r="B22" s="12"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="24"/>
+      <c r="F22"/>
+      <c r="G22" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="45" t="s">
+      <c r="H22" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="82" t="s">
+      <c r="I22" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="44"/>
-      <c r="K20" s="84" t="s">
+      <c r="J22" s="1"/>
+      <c r="K22" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L20" s="45" t="s">
+      <c r="L22" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="M20" s="82" t="s">
+      <c r="M22" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="O20" s="55"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="82"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="71"/>
-      <c r="W20" s="70"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="71"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="N22"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="57"/>
+      <c r="R22"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="49"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+      <c r="AG22"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="34"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="86" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="24"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L23" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="M21" s="82" t="s">
+      <c r="M23" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="O21" s="53"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="54"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="68"/>
-      <c r="W21" s="69"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="68"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="O23" s="37"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="57"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="49"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="49"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="34"/>
-      <c r="G22" s="51" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="24"/>
+      <c r="G24" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H24" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="I22" s="82" t="s">
+      <c r="I24" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="51" t="s">
+      <c r="J24" s="1"/>
+      <c r="K24" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="L24" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="M22" s="52" t="s">
+      <c r="M24" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="51"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="82"/>
-      <c r="S22" s="65"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="66"/>
-      <c r="W22" s="65"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="66"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="O24" s="37"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="57"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="49"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="49"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="34"/>
-      <c r="G23" s="51" t="s">
+      <c r="B25" s="12"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="24"/>
+      <c r="G25" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H25" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="I23" s="52" t="s">
+      <c r="I25" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="52"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="52"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="66"/>
-      <c r="W23" s="65"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="66"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="J25" s="1"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="57"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="57"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="49"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="49"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="89"/>
-      <c r="G24" s="51" t="s">
+      <c r="B26" s="12"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="24"/>
+      <c r="G26" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H26" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="I24" s="52" t="s">
+      <c r="I26" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="52"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="52"/>
-      <c r="S24" s="65"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="66"/>
-      <c r="W24" s="65"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="66"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="J26" s="1"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="57"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="57"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="49"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="49"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="89"/>
-      <c r="G25" s="51" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="24"/>
+      <c r="G27" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H27" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="52" t="s">
+      <c r="I27" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="52"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="52"/>
-      <c r="S25" s="65"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="66"/>
-      <c r="W25" s="65"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="66"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="J27" s="1"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="57"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="57"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="49"/>
+      <c r="W27" s="48"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="49"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="89"/>
-      <c r="G26" s="51" t="s">
+      <c r="B28" s="12"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="24"/>
+      <c r="G28" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H28" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="I26" s="52" t="s">
+      <c r="I28" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="52"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="52"/>
-      <c r="S26" s="65"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="66"/>
-      <c r="W26" s="65"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="66"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="J28" s="1"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="57"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="57"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="49"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="49"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="89"/>
-      <c r="G27" s="51" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="24"/>
+      <c r="G29" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H29" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="I27" s="52" t="s">
+      <c r="I29" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="52"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="52"/>
-      <c r="S27" s="65"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="66"/>
-      <c r="W27" s="65"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="66"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="J29" s="1"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="57"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="57"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="49"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="49"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="89"/>
-      <c r="G28" s="51" t="s">
+      <c r="B30" s="12"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="24"/>
+      <c r="G30" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H30" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="I28" s="52" t="s">
+      <c r="I30" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="91"/>
-      <c r="M28" s="92"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="91"/>
-      <c r="Q28" s="92"/>
-      <c r="S28" s="65"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="66"/>
-      <c r="W28" s="65"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="66"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="J30" s="1"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="57"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="57"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="49"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="49"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="89"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="52"/>
-      <c r="O29" s="51" t="s">
+      <c r="B31" s="12"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="24"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="57"/>
+      <c r="O31" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="P29" s="6" t="s">
+      <c r="P31" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="Q29" s="52" t="s">
+      <c r="Q31" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="S29" s="65"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="66"/>
-      <c r="W29" s="65"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="66"/>
-    </row>
-    <row r="30" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="35"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="59"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="59"/>
-      <c r="S30" s="72"/>
-      <c r="T30" s="73"/>
-      <c r="U30" s="74"/>
-      <c r="W30" s="72"/>
-      <c r="X30" s="73"/>
-      <c r="Y30" s="74"/>
-    </row>
-    <row r="31" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G31" s="8"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="9"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="9"/>
-      <c r="S31" s="60"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="61"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="9"/>
-    </row>
-    <row r="32" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="94" t="s">
+      <c r="S31" s="48"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="49"/>
+      <c r="W31" s="48"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="49"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="24"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="57"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="57"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="49"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="49"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="24"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="57"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="57"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="49"/>
+      <c r="W33" s="48"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="49"/>
+    </row>
+    <row r="34" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="25"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="40"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="40"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="52"/>
+      <c r="W34" s="50"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="52"/>
+    </row>
+    <row r="35" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G35" s="6"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="7"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="7"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="42"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="7"/>
+    </row>
+    <row r="36" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B36" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="48" t="s">
+      <c r="G36" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="49" t="s">
+      <c r="H36" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="50" t="s">
+      <c r="I36" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="K32" s="48" t="s">
+      <c r="K36" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L32" s="49" t="s">
+      <c r="L36" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="M32" s="50" t="s">
+      <c r="M36" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="O32" s="48" t="s">
+      <c r="O36" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="P32" s="49" t="s">
+      <c r="P36" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="Q32" s="50" t="s">
+      <c r="Q36" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="S32" s="76" t="s">
+      <c r="S36" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="T32" s="75" t="s">
+      <c r="T36" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="U32" s="77" t="s">
+      <c r="U36" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="W32" s="76" t="s">
+      <c r="W36" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="X32" s="75" t="s">
+      <c r="X36" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="Y32" s="77" t="s">
+      <c r="Y36" s="55" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="78" t="s">
+    <row r="37" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="66"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="22"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="36"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="36"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="36"/>
+      <c r="S37" s="47"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="46"/>
+      <c r="W37" s="47"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="46"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="101" t="s">
+      <c r="B38" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="102"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="31"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="54"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="54"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="54"/>
-      <c r="S33" s="69"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="68"/>
-      <c r="W33" s="69"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="68"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="78" t="s">
+      <c r="C38" s="67"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="22"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="36"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="36"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="36"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="46"/>
+      <c r="W38" s="47"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="46"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="101" t="s">
+      <c r="B39" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="102"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="31"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="54"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="54"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="54"/>
-      <c r="S34" s="69"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="68"/>
-      <c r="W34" s="69"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="68"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="78"/>
-      <c r="B35" s="101"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="31"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="54"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="54"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="54"/>
-      <c r="S35" s="69"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="68"/>
-      <c r="W35" s="69"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="68"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="78"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="31"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="54"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="54"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="54"/>
-      <c r="S36" s="69"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="68"/>
-      <c r="W36" s="69"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="68"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="95"/>
-      <c r="C37" s="96"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="31"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="54"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="54"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="54"/>
-      <c r="S37" s="69"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="68"/>
-      <c r="W37" s="69"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="68"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="95"/>
-      <c r="C38" s="96"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="31"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="54"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="54"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="54"/>
-      <c r="S38" s="69"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="68"/>
-      <c r="W38" s="69"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="68"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="95"/>
-      <c r="C39" s="96"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="31"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="54"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="54"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="54"/>
-      <c r="S39" s="69"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="68"/>
-      <c r="W39" s="69"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="68"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="22"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="36"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="36"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="36"/>
+      <c r="S39" s="47"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="46"/>
+      <c r="W39" s="47"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="46"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="95"/>
-      <c r="C40" s="96"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="31"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="54"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="54"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="54"/>
-      <c r="S40" s="69"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="68"/>
-      <c r="W40" s="69"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="68"/>
-    </row>
-    <row r="41" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="28"/>
-      <c r="B41" s="98"/>
-      <c r="C41" s="99"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="32"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="59"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="59"/>
-      <c r="O41" s="57"/>
-      <c r="P41" s="58"/>
-      <c r="Q41" s="59"/>
-      <c r="S41" s="72"/>
-      <c r="T41" s="73"/>
-      <c r="U41" s="74"/>
-      <c r="W41" s="72"/>
-      <c r="X41" s="73"/>
-      <c r="Y41" s="74"/>
-    </row>
-    <row r="42" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="22"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="36"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="36"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="36"/>
+      <c r="S40" s="47"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="46"/>
+      <c r="W40" s="47"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="46"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="22"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="36"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="36"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="36"/>
+      <c r="S41" s="47"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="46"/>
+      <c r="W41" s="47"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="46"/>
+    </row>
+    <row r="42" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="19"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="23"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="40"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="40"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="40"/>
+      <c r="S42" s="50"/>
+      <c r="T42" s="51"/>
+      <c r="U42" s="52"/>
+      <c r="W42" s="50"/>
+      <c r="X42" s="51"/>
+      <c r="Y42" s="52"/>
+    </row>
+    <row r="43" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
-    <protectedRange sqref="S3:Y6 V7:Y9 S10:Y41" name="customEntities"/>
-    <protectedRange sqref="A33:Y41" name="Questionnaire"/>
-    <protectedRange sqref="A6:Y6 A30:Y30 V7:Y9 B7:R9 B10:Y29" name="Contact Fields"/>
-    <protectedRange sqref="A30:XFD31" name="Contact Fields_2"/>
-    <protectedRange sqref="A7:A29" name="Contact Fields_1"/>
-    <protectedRange sqref="S7:U9" name="customEntities_1"/>
-    <protectedRange sqref="S7:U9" name="Contact Fields_3"/>
+    <protectedRange sqref="S3:Y8 V9:Y11 S12:Y42" name="customEntities"/>
+    <protectedRange sqref="A40:Y42 B37:Y37 A38:Y39" name="Questionnaire"/>
+    <protectedRange sqref="A6:E8 A34:E34 V9:Y11 B9:E33 G6:I34 K6:M34 O6:Q34 S6:Y8 S12:Y34" name="Contact Fields"/>
+    <protectedRange sqref="A35:Y35 A34:E34 G34:I34 K34:M34 O34:Q34 S34:Y34 AH34:XFD35" name="Contact Fields_2"/>
+    <protectedRange sqref="A9:A33" name="Contact Fields_1"/>
+    <protectedRange sqref="S9:U11" name="customEntities_1"/>
+    <protectedRange sqref="S9:U11" name="Contact Fields_3"/>
+    <protectedRange sqref="A37" name="Questionnaire_1"/>
   </protectedRanges>
-  <mergeCells count="13">
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
+  <mergeCells count="11">
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="W3:Y3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="V7:AG9 B7:R9 A10:AG31">
-    <cfRule type="expression" dxfId="5" priority="19">
-      <formula>$C7="x"</formula>
+  <conditionalFormatting sqref="V9:V11 A35:Y35 S12:V33 S6:U33 A6:E34 G6:I34 K34:M34 O34:Q34 S34:Y34">
+    <cfRule type="expression" dxfId="9" priority="23">
+      <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="20">
-      <formula>$D7="x"</formula>
+    <cfRule type="expression" dxfId="8" priority="24">
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W33:Y41 S33:U41 O33:Q41 K33:M41 G33:I41">
-    <cfRule type="expression" dxfId="3" priority="17">
-      <formula>$C33="x"</formula>
+  <conditionalFormatting sqref="W37:Y42 S37:U42 O37:Q42 K37:M42 G37:I42">
+    <cfRule type="expression" dxfId="7" priority="21">
+      <formula>$C37="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="18">
-      <formula>$D33="x"</formula>
+    <cfRule type="expression" dxfId="6" priority="22">
+      <formula>$D37="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S7:U9">
+  <conditionalFormatting sqref="S9:U11">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:Q33 K6:M33">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$D6="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W6:Y33">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C7="x"</formula>
+      <formula>$C6="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D7="x"</formula>
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D30" xr:uid="{6D646658-16D3-43D0-865C-2CFC2017A5FB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D34" xr:uid="{6D646658-16D3-43D0-865C-2CFC2017A5FB}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I30 M6:M30 Q6:Q30 U6:U30 Y6:Y30 Y33:Y41 U33:U41 Q33:Q41 M33:M41 I33:I41" xr:uid="{9CA0722E-AB54-43FA-B7A7-64416E3C90C4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I34 M6:M34 Q6:Q34 U6:U34 Y6:Y34 I37:I42 M37:M42 Q37:Q42 U37:U42 Y37:Y42" xr:uid="{9CA0722E-AB54-43FA-B7A7-64416E3C90C4}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3490,6 +3372,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -3698,22 +3595,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3730,29 +3637,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_SAP_C4HANA_DE.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_SAP_C4HANA_DE.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84323DDE-DDEE-44C5-A68A-60CD91BDD0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64951E5-1414-445A-8603-9BD50DA5C92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="8Dyaui/daSUT/hOvn8XBo2s24xlJVXslcs1WHSyLVowDjRkSWj4RV+pFVEsQSEKModckNG3YVppR/q0TwGchqw==" workbookSaltValue="ZPx5szgFR6cPwbArCr9dlg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="6285" windowWidth="18255" windowHeight="5385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="108">
   <si>
     <t>Website</t>
   </si>
@@ -183,9 +183,6 @@
   </si>
   <si>
     <t>Thema</t>
-  </si>
-  <si>
-    <t>Funktiion</t>
   </si>
   <si>
     <t>Stadt</t>
@@ -1194,24 +1191,6 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1242,11 +1221,73 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1431,11 +1472,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="14"/>
-      <tableStyleElement type="headerRow" dxfId="13"/>
-      <tableStyleElement type="firstColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="secondRowStripe" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="18"/>
+      <tableStyleElement type="headerRow" dxfId="17"/>
+      <tableStyleElement type="firstColumn" dxfId="16"/>
+      <tableStyleElement type="firstRowStripe" dxfId="15"/>
+      <tableStyleElement type="secondRowStripe" dxfId="14"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1911,8 +1952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:AG43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1961,32 +2002,32 @@
         <v>47</v>
       </c>
       <c r="E3" s="21"/>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="75" t="s">
+      <c r="K3" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="O3" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="O3" s="75" t="s">
-        <v>97</v>
-      </c>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="S3" s="69" t="s">
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="S3" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="70"/>
-      <c r="U3" s="71"/>
-      <c r="W3" s="72" t="s">
+      <c r="T3" s="64"/>
+      <c r="U3" s="65"/>
+      <c r="W3" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="74"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="68"/>
     </row>
     <row r="4" spans="1:33" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1994,7 +2035,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
@@ -2050,21 +2091,21 @@
     </row>
     <row r="6" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>101</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" s="24"/>
       <c r="G6" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="29" t="s">
         <v>102</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>103</v>
       </c>
       <c r="I6" s="57" t="s">
         <v>17</v>
@@ -2085,21 +2126,21 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>105</v>
-      </c>
       <c r="C7" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="24"/>
       <c r="G7" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="29" t="s">
         <v>106</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>107</v>
       </c>
       <c r="I7" s="57" t="s">
         <v>17</v>
@@ -2199,7 +2240,7 @@
         <v>41</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I10" s="57" t="s">
         <v>18</v>
@@ -2209,7 +2250,7 @@
         <v>41</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M10" s="57" t="s">
         <v>18</v>
@@ -2230,17 +2271,17 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
       <c r="E11" s="24"/>
       <c r="G11" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="29" t="s">
         <v>94</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>95</v>
       </c>
       <c r="I11" s="57" t="s">
         <v>17</v>
@@ -2268,10 +2309,10 @@
       <c r="D12" s="15"/>
       <c r="E12" s="24"/>
       <c r="G12" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="29" t="s">
         <v>59</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>60</v>
       </c>
       <c r="I12" s="57" t="s">
         <v>17</v>
@@ -2305,10 +2346,10 @@
       <c r="D13" s="15"/>
       <c r="E13" s="24"/>
       <c r="G13" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="29" t="s">
         <v>61</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>62</v>
       </c>
       <c r="I13" s="57" t="s">
         <v>17</v>
@@ -2335,7 +2376,7 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="14"/>
@@ -2349,7 +2390,7 @@
         <v>32</v>
       </c>
       <c r="L14" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M14" s="57" t="s">
         <v>17</v>
@@ -2373,7 +2414,7 @@
       <c r="D15" s="15"/>
       <c r="E15" s="24"/>
       <c r="G15" s="37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H15" s="29" t="s">
         <v>5</v>
@@ -2414,7 +2455,7 @@
         <v>36</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I16" s="57" t="s">
         <v>17</v>
@@ -2424,7 +2465,7 @@
         <v>36</v>
       </c>
       <c r="L16" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M16" s="57" t="s">
         <v>17</v>
@@ -2457,7 +2498,7 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="14"/>
@@ -2467,7 +2508,7 @@
         <v>7</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I17" s="57" t="s">
         <v>17</v>
@@ -2477,7 +2518,7 @@
         <v>7</v>
       </c>
       <c r="L17" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M17" s="57" t="s">
         <v>17</v>
@@ -2510,7 +2551,7 @@
         <v>40</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I18" s="57" t="s">
         <v>18</v>
@@ -2520,7 +2561,7 @@
         <v>40</v>
       </c>
       <c r="L18" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M18" s="57" t="s">
         <v>17</v>
@@ -2529,7 +2570,7 @@
         <v>40</v>
       </c>
       <c r="P18" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q18" s="57" t="s">
         <v>17</v>
@@ -2550,29 +2591,29 @@
       <c r="D19" s="15"/>
       <c r="E19" s="24"/>
       <c r="G19" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="29" t="s">
         <v>67</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>68</v>
       </c>
       <c r="I19" s="57" t="s">
         <v>17</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L19" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M19" s="57" t="s">
         <v>17</v>
       </c>
       <c r="O19" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P19" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q19" s="57" t="s">
         <v>17</v>
@@ -2596,7 +2637,7 @@
         <v>39</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I20" s="57" t="s">
         <v>17</v>
@@ -2606,7 +2647,7 @@
         <v>39</v>
       </c>
       <c r="L20" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M20" s="57" t="s">
         <v>17</v>
@@ -2615,7 +2656,7 @@
         <v>39</v>
       </c>
       <c r="P20" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q20" s="57" t="s">
         <v>17</v>
@@ -2639,7 +2680,7 @@
         <v>34</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I21" s="57" t="s">
         <v>17</v>
@@ -2680,20 +2721,20 @@
       <c r="E22" s="24"/>
       <c r="F22"/>
       <c r="G22" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="29" t="s">
         <v>71</v>
-      </c>
-      <c r="H22" s="29" t="s">
-        <v>72</v>
       </c>
       <c r="I22" s="57" t="s">
         <v>17</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L22" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M22" s="57" t="s">
         <v>17</v>
@@ -2761,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I24" s="57" t="s">
         <v>17</v>
@@ -2795,10 +2836,10 @@
       <c r="D25" s="15"/>
       <c r="E25" s="24"/>
       <c r="G25" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="29" t="s">
         <v>74</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>75</v>
       </c>
       <c r="I25" s="57" t="s">
         <v>17</v>
@@ -2819,17 +2860,17 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="14"/>
       <c r="D26" s="15"/>
       <c r="E26" s="24"/>
       <c r="G26" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I26" s="57" t="s">
         <v>18</v>
@@ -2850,17 +2891,17 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="14"/>
       <c r="D27" s="15"/>
       <c r="E27" s="24"/>
       <c r="G27" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I27" s="57" t="s">
         <v>18</v>
@@ -2881,17 +2922,17 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15"/>
       <c r="E28" s="24"/>
       <c r="G28" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" s="29" t="s">
         <v>78</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>79</v>
       </c>
       <c r="I28" s="57" t="s">
         <v>18</v>
@@ -2912,17 +2953,17 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="14"/>
       <c r="D29" s="15"/>
       <c r="E29" s="24"/>
       <c r="G29" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I29" s="57" t="s">
         <v>18</v>
@@ -2943,17 +2984,17 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="14"/>
       <c r="D30" s="15"/>
       <c r="E30" s="24"/>
       <c r="G30" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I30" s="57" t="s">
         <v>17</v>
@@ -2974,7 +3015,7 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="14"/>
@@ -2988,10 +3029,10 @@
       <c r="L31" s="29"/>
       <c r="M31" s="57"/>
       <c r="O31" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P31" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q31" s="57" t="s">
         <v>18</v>
@@ -3150,11 +3191,11 @@
     </row>
     <row r="37" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B37" s="66"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="68"/>
+        <v>107</v>
+      </c>
+      <c r="B37" s="60"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="62"/>
       <c r="E37" s="22"/>
       <c r="G37" s="35"/>
       <c r="H37" s="4"/>
@@ -3176,11 +3217,11 @@
       <c r="A38" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="66" t="s">
+      <c r="B38" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="67"/>
-      <c r="D38" s="68"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="62"/>
       <c r="E38" s="22"/>
       <c r="G38" s="35"/>
       <c r="H38" s="4"/>
@@ -3202,11 +3243,11 @@
       <c r="A39" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="66" t="s">
+      <c r="B39" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="67"/>
-      <c r="D39" s="68"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="62"/>
       <c r="E39" s="22"/>
       <c r="G39" s="35"/>
       <c r="H39" s="4"/>
@@ -3226,9 +3267,9 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="62"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="72"/>
       <c r="E40" s="22"/>
       <c r="G40" s="35"/>
       <c r="H40" s="4"/>
@@ -3248,9 +3289,9 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="62"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="72"/>
       <c r="E41" s="22"/>
       <c r="G41" s="35"/>
       <c r="H41" s="4"/>
@@ -3270,9 +3311,9 @@
     </row>
     <row r="42" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="65"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="75"/>
       <c r="E42" s="23"/>
       <c r="G42" s="38"/>
       <c r="H42" s="39"/>
@@ -3295,7 +3336,7 @@
   <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
     <protectedRange sqref="S3:Y8 V9:Y11 S12:Y42" name="customEntities"/>
-    <protectedRange sqref="A40:Y42 B37:Y37 A38:Y39" name="Questionnaire"/>
+    <protectedRange sqref="B37:Y37 A38:Y42" name="Questionnaire"/>
     <protectedRange sqref="A6:E8 A34:E34 V9:Y11 B9:E33 G6:I34 K6:M34 O6:Q34 S6:Y8 S12:Y34" name="Contact Fields"/>
     <protectedRange sqref="A35:Y35 A34:E34 G34:I34 K34:M34 O34:Q34 S34:Y34 AH34:XFD35" name="Contact Fields_2"/>
     <protectedRange sqref="A9:A33" name="Contact Fields_1"/>
@@ -3304,6 +3345,9 @@
     <protectedRange sqref="A37" name="Questionnaire_1"/>
   </protectedRanges>
   <mergeCells count="11">
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
@@ -3312,48 +3356,45 @@
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="V9:V11 A35:Y35 S12:V33 S6:U33 A6:E34 G6:I34 K34:M34 O34:Q34 S34:Y34">
-    <cfRule type="expression" dxfId="9" priority="23">
+    <cfRule type="expression" dxfId="3" priority="23">
       <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="24">
+    <cfRule type="expression" dxfId="2" priority="24">
       <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W37:Y42 S37:U42 O37:Q42 K37:M42 G37:I42">
-    <cfRule type="expression" dxfId="7" priority="21">
+    <cfRule type="expression" dxfId="11" priority="21">
       <formula>$C37="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="22">
+    <cfRule type="expression" dxfId="10" priority="22">
       <formula>$D37="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9:U11">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>$C9="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>$D9="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:Q33 K6:M33">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W6:Y33">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3372,18 +3413,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3596,6 +3637,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -3608,14 +3657,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_SAP_C4HANA_DE.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_SAP_C4HANA_DE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64951E5-1414-445A-8603-9BD50DA5C92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CF724D-3DA7-49BA-870C-31694A5585FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="8Dyaui/daSUT/hOvn8XBo2s24xlJVXslcs1WHSyLVowDjRkSWj4RV+pFVEsQSEKModckNG3YVppR/q0TwGchqw==" workbookSaltValue="ZPx5szgFR6cPwbArCr9dlg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -1191,6 +1191,24 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1221,73 +1239,11 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <b val="0"/>
@@ -1472,11 +1428,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="18"/>
-      <tableStyleElement type="headerRow" dxfId="17"/>
-      <tableStyleElement type="firstColumn" dxfId="16"/>
-      <tableStyleElement type="firstRowStripe" dxfId="15"/>
-      <tableStyleElement type="secondRowStripe" dxfId="14"/>
+      <tableStyleElement type="wholeTable" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="firstColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1952,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:AG43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I37" activeCellId="9" sqref="I6:I34 M6:M34 Q6:Q34 U6:U34 Y6:Y34 Y37:Y42 U37:U42 Q37:Q42 M37:M42 I37:I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2002,32 +1958,32 @@
         <v>47</v>
       </c>
       <c r="E3" s="21"/>
-      <c r="G3" s="69" t="s">
+      <c r="G3" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="69" t="s">
+      <c r="K3" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="O3" s="69" t="s">
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="O3" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="S3" s="63" t="s">
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="S3" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="64"/>
-      <c r="U3" s="65"/>
-      <c r="W3" s="66" t="s">
+      <c r="T3" s="70"/>
+      <c r="U3" s="71"/>
+      <c r="W3" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="68"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="74"/>
     </row>
     <row r="4" spans="1:33" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3193,9 +3149,9 @@
       <c r="A37" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="60"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="62"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="68"/>
       <c r="E37" s="22"/>
       <c r="G37" s="35"/>
       <c r="H37" s="4"/>
@@ -3217,11 +3173,11 @@
       <c r="A38" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="60" t="s">
+      <c r="B38" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="61"/>
-      <c r="D38" s="62"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="68"/>
       <c r="E38" s="22"/>
       <c r="G38" s="35"/>
       <c r="H38" s="4"/>
@@ -3243,11 +3199,11 @@
       <c r="A39" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="62"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="68"/>
       <c r="E39" s="22"/>
       <c r="G39" s="35"/>
       <c r="H39" s="4"/>
@@ -3267,9 +3223,9 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="72"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="62"/>
       <c r="E40" s="22"/>
       <c r="G40" s="35"/>
       <c r="H40" s="4"/>
@@ -3289,9 +3245,9 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="72"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="62"/>
       <c r="E41" s="22"/>
       <c r="G41" s="35"/>
       <c r="H41" s="4"/>
@@ -3311,9 +3267,9 @@
     </row>
     <row r="42" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19"/>
-      <c r="B42" s="73"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="75"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="65"/>
       <c r="E42" s="23"/>
       <c r="G42" s="38"/>
       <c r="H42" s="39"/>
@@ -3345,56 +3301,56 @@
     <protectedRange sqref="A37" name="Questionnaire_1"/>
   </protectedRanges>
   <mergeCells count="11">
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="V9:V11 A35:Y35 S12:V33 S6:U33 A6:E34 G6:I34 K34:M34 O34:Q34 S34:Y34">
-    <cfRule type="expression" dxfId="3" priority="23">
+    <cfRule type="expression" dxfId="9" priority="23">
       <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="24">
+    <cfRule type="expression" dxfId="8" priority="24">
       <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W37:Y42 S37:U42 O37:Q42 K37:M42 G37:I42">
-    <cfRule type="expression" dxfId="11" priority="21">
+    <cfRule type="expression" dxfId="7" priority="21">
       <formula>$C37="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="22">
+    <cfRule type="expression" dxfId="6" priority="22">
       <formula>$D37="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9:U11">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$C9="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$D9="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:Q33 K6:M33">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W6:Y33">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3402,8 +3358,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D34" xr:uid="{6D646658-16D3-43D0-865C-2CFC2017A5FB}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I34 M6:M34 Q6:Q34 U6:U34 Y6:Y34 I37:I42 M37:M42 Q37:Q42 U37:U42 Y37:Y42" xr:uid="{9CA0722E-AB54-43FA-B7A7-64416E3C90C4}">
-      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I34 M6:M34 Q6:Q34 U6:U34 Y6:Y34 Y37:Y42 U37:U42 Q37:Q42 M37:M42 I37:I42" xr:uid="{00B54313-CCF1-493F-8B92-73ACA2B5AE71}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3413,18 +3369,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3637,14 +3593,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -3657,6 +3605,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
